--- a/00_спецификации.xlsx
+++ b/00_спецификации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.korolyov\Desktop\mrp_tool_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2537B1CC-6192-4561-9646-9330612C48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46B72C-BABE-4317-9512-5945904AD7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{36EB4803-2B76-4718-8EF7-EA59502D1C71}"/>
   </bookViews>
@@ -3044,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C819DA3C-2422-44BB-8DD0-02454BC15D7A}">
   <dimension ref="A1:F714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4307,7 +4307,9 @@
       <c r="D74" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
@@ -4320,7 +4322,9 @@
       <c r="D75" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
@@ -4333,7 +4337,9 @@
       <c r="D76" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
@@ -5242,7 +5248,9 @@
       <c r="D132" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
@@ -5255,7 +5263,9 @@
       <c r="D133" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
@@ -5268,7 +5278,9 @@
       <c r="D134" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
@@ -5281,7 +5293,9 @@
       <c r="D135" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">

--- a/00_спецификации.xlsx
+++ b/00_спецификации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.korolyov\Desktop\mrp_tool_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46B72C-BABE-4317-9512-5945904AD7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327B5D1-0F34-48D6-AFBD-A556ADA9D363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{36EB4803-2B76-4718-8EF7-EA59502D1C71}"/>
   </bookViews>
@@ -3044,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C819DA3C-2422-44BB-8DD0-02454BC15D7A}">
   <dimension ref="A1:F714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/00_спецификации.xlsx
+++ b/00_спецификации.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.korolyov\Downloads\mrp_tool-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F924F-F523-46DC-B853-093BDE9D8CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA860B-DB2D-46C7-9E7E-BB551BB3488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{36EB4803-2B76-4718-8EF7-EA59502D1C71}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{36EB4803-2B76-4718-8EF7-EA59502D1C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="827">
   <si>
     <t>Артикул поставщика</t>
   </si>
@@ -2512,6 +2512,12 @@
   </si>
   <si>
     <t>Упаковка (коробка и ложемент) для Планшета, Графит</t>
+  </si>
+  <si>
+    <t>Защелка порта RJ45 cover\ABS+PC\black material\ balck PU oil/Pantone 18-0000 TPG 2.09.N14WP6.R83P0</t>
+  </si>
+  <si>
+    <t>ЕР-00184269</t>
   </si>
 </sst>
 </file>
@@ -3049,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C819DA3C-2422-44BB-8DD0-02454BC15D7A}">
   <dimension ref="A1:F714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D405" sqref="D405"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -8166,11 +8172,11 @@
         <v>432</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>120</v>
+        <v>826</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>680</v>
+        <v>825</v>
       </c>
       <c r="E317" s="1">
         <v>1</v>
